--- a/Format-Input-APBDP.xlsx
+++ b/Format-Input-APBDP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\keprakdibi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,188 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Uraian</t>
   </si>
   <si>
-    <t>Pendapatan</t>
-  </si>
-  <si>
-    <t>PAD</t>
-  </si>
-  <si>
-    <t>Pajak daerah</t>
-  </si>
-  <si>
-    <t>Retribusi daerah</t>
-  </si>
-  <si>
-    <t>Hasil pengelolaan kekayaan daerah yang dipisahkan</t>
-  </si>
-  <si>
-    <t>Lain-lain PAD yang sah</t>
-  </si>
-  <si>
-    <t>Pendapatan Transfer</t>
-  </si>
-  <si>
-    <t>Transfer Pemerintah Pusat - Dana Perimbangan</t>
-  </si>
-  <si>
-    <t>Dana Bagi Hasil Pajak</t>
-  </si>
-  <si>
-    <t>Dana Bagi Hasil Bukan Pajak (SDA)</t>
-  </si>
-  <si>
-    <t>Dana alokasi umum</t>
-  </si>
-  <si>
-    <t>Dana alokasi khusus</t>
-  </si>
-  <si>
-    <t>Transfer Pemerintah Pusat - Lainnya</t>
-  </si>
-  <si>
-    <t>Dana Otonomi Khusus</t>
-  </si>
-  <si>
-    <t>Dana Penyesuaian</t>
-  </si>
-  <si>
-    <t>Transfer Pemerintah Provinsi</t>
-  </si>
-  <si>
-    <t>Pendapatan Bagi Hasil Pajak</t>
-  </si>
-  <si>
-    <t>Pendapatan Bagi Hasil Lainnya</t>
-  </si>
-  <si>
-    <t>Lain-lain Pendapatan yang sah</t>
-  </si>
-  <si>
-    <t>Pendapatan Hibah</t>
-  </si>
-  <si>
-    <t>Pendapatan Dana Darurat</t>
-  </si>
-  <si>
-    <t>Pendapatan Lainnya</t>
-  </si>
-  <si>
-    <t>Belanja</t>
-  </si>
-  <si>
-    <t>Belanja Operasi</t>
-  </si>
-  <si>
-    <t>Belanja Pegawai</t>
-  </si>
-  <si>
-    <t>Belanja Barang</t>
-  </si>
-  <si>
-    <t>Belanja Bunga</t>
-  </si>
-  <si>
-    <t>Belanja Subsidi</t>
-  </si>
-  <si>
-    <t>Belanja Hibah</t>
-  </si>
-  <si>
-    <t>Belanja Bantuan sosial</t>
-  </si>
-  <si>
-    <t>Belanja Bantuan Keuangan</t>
-  </si>
-  <si>
-    <t>Belanja Modal</t>
-  </si>
-  <si>
-    <t>Tanah</t>
-  </si>
-  <si>
-    <t>Peralatan dan Mesin</t>
-  </si>
-  <si>
-    <t>Gedung dan Bangunan</t>
-  </si>
-  <si>
-    <t>Jalan, irigasi dan jaringan</t>
-  </si>
-  <si>
-    <t>Aset tetap lainnya</t>
-  </si>
-  <si>
-    <t>Konstruksi Dalam Pengerjaan</t>
-  </si>
-  <si>
-    <t>Aset lainnya</t>
-  </si>
-  <si>
-    <t>Belanja tidak terduga</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Bagi Hasil Pajak ke Kab/Kota/Desa</t>
-  </si>
-  <si>
-    <t>Bagi Hasil Retribusi ke Kab/Kota/Desa</t>
-  </si>
-  <si>
-    <t>Bagi Hasil Lainnya ke Kab/Kota/Desa</t>
-  </si>
-  <si>
-    <t>Transfer Lainnya ke Kab/Kota/Desa</t>
-  </si>
-  <si>
-    <t>Belanja dan Transfer</t>
-  </si>
-  <si>
-    <t>Pembiayaan</t>
-  </si>
-  <si>
-    <t>Penerimaan Pembiayaan</t>
-  </si>
-  <si>
-    <t>SiLPA TA sebelumnya</t>
-  </si>
-  <si>
-    <t>Pencairan dana cadangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasil Penjualan Kekayaan Daerah yang Dipisahkan </t>
-  </si>
-  <si>
-    <t>Penerimaan Pinjaman Daerah dan Obligasi Daerah</t>
-  </si>
-  <si>
-    <t>Penerimaan Kembali Pemberian Pinjaman</t>
-  </si>
-  <si>
-    <t>Pengeluaran Pembiayaan</t>
-  </si>
-  <si>
-    <t>Pembentukan Dana Cadangan</t>
-  </si>
-  <si>
-    <t>Penyertaan Modal (Investasi) Daerah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pembayaran Pokok Utang </t>
-  </si>
-  <si>
-    <t>Pembayaran Kegiatan Lanjutan</t>
-  </si>
-  <si>
-    <t>Pengeluaran Perhitungan Pihak Ketiga</t>
-  </si>
-  <si>
     <t>APBD</t>
   </si>
   <si>
@@ -222,6 +45,126 @@
   </si>
   <si>
     <t>isi disini</t>
+  </si>
+  <si>
+    <t>PENDAPATAN DAERAH</t>
+  </si>
+  <si>
+    <t>PEND. ASLI DAERAH (PAD)</t>
+  </si>
+  <si>
+    <t>- Pendapatan Pajak Daerah</t>
+  </si>
+  <si>
+    <t>- Retribusi Daerah</t>
+  </si>
+  <si>
+    <t>- Hsl PMD &amp; Hsl Pengel. Kek. Daerah yg dipisahkan</t>
+  </si>
+  <si>
+    <t>- Lain-Lain PAD yg Sah</t>
+  </si>
+  <si>
+    <t>DANA PERIMBANGAN</t>
+  </si>
+  <si>
+    <t>- Bagi hasil pajak dan bukan pajak</t>
+  </si>
+  <si>
+    <t>- Dana Alokasi Umum (DAU)</t>
+  </si>
+  <si>
+    <t>- Dana Alokasi Khusus (DAK)</t>
+  </si>
+  <si>
+    <t>- Dana Penguatan Infrastruktur Daerah</t>
+  </si>
+  <si>
+    <t>LAIN-LAIN PENDAPATAN YG SAH</t>
+  </si>
+  <si>
+    <t>- Pendapatan Hibah</t>
+  </si>
+  <si>
+    <t>- Dana bagi hsl pajak dr Prov &amp; pemda lainnya</t>
+  </si>
+  <si>
+    <t>- Dana Penyesuaian &amp; otonomi khusus</t>
+  </si>
+  <si>
+    <t>- Bantuan Keuangan dr Prov atau Pemda lain</t>
+  </si>
+  <si>
+    <t>- Sumbangan Pihak Ketiga</t>
+  </si>
+  <si>
+    <t>- Alokasi Kurang Bayar DAK</t>
+  </si>
+  <si>
+    <t>BELANJA DAERAH</t>
+  </si>
+  <si>
+    <t>BELANJA TIDAK LANGSUNG</t>
+  </si>
+  <si>
+    <t>- Belanja Pegawai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Belanja Barang </t>
+  </si>
+  <si>
+    <t>- Belanja Subsidi</t>
+  </si>
+  <si>
+    <t>- Belanja Hibah</t>
+  </si>
+  <si>
+    <t>- Belanja Bantuan Sosial</t>
+  </si>
+  <si>
+    <t>- Belanja Bagi Hsl kpd Prov/Kab/Kota &amp; Pemda</t>
+  </si>
+  <si>
+    <t>- Belanja Bantuan Keuangan kpd Prov/Kab/Kota/Desa</t>
+  </si>
+  <si>
+    <t>- Belanja Tidak Terduga</t>
+  </si>
+  <si>
+    <t>BELANJA LANGSUNG</t>
+  </si>
+  <si>
+    <t>- Belanja Barang dan Jasa</t>
+  </si>
+  <si>
+    <t>- Belanja Modal</t>
+  </si>
+  <si>
+    <t>SURPLUS/(DEFISIT)</t>
+  </si>
+  <si>
+    <t>PEMBIAYAAN</t>
+  </si>
+  <si>
+    <t>PENERIMAAN DAERAH</t>
+  </si>
+  <si>
+    <t>Penggunaan Sisa Lebih Perhitungan Anggaran (SILPA)</t>
+  </si>
+  <si>
+    <t>PENGELUARAN DAEARAH</t>
+  </si>
+  <si>
+    <t>Penyertaan Modal (Investasi) Pemerintah Daerah</t>
+  </si>
+  <si>
+    <t>Penguatan Modal Pemerintah Daerah</t>
+  </si>
+  <si>
+    <t>PEMBIAYAAN NETTO</t>
+  </si>
+  <si>
+    <t>SISA LEBIH PEMBIAYAAN ANGGARAN (SILPA)</t>
   </si>
 </sst>
 </file>
@@ -598,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="12"/>
@@ -614,26 +557,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,15 +584,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -660,7 +603,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -671,7 +614,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -682,7 +625,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
@@ -693,7 +636,7 @@
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -704,7 +647,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -715,7 +658,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -726,7 +669,7 @@
     </row>
     <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -737,7 +680,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -748,7 +691,7 @@
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
@@ -759,7 +702,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -770,7 +713,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
@@ -779,9 +722,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
@@ -792,7 +735,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>14</v>
@@ -803,7 +746,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>15</v>
@@ -814,7 +757,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>16</v>
@@ -825,7 +768,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>17</v>
@@ -836,7 +779,7 @@
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
         <v>18</v>
@@ -847,7 +790,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3">
         <v>19</v>
@@ -858,7 +801,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3">
         <v>20</v>
@@ -869,7 +812,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3">
         <v>21</v>
@@ -880,7 +823,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3">
         <v>22</v>
@@ -891,7 +834,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3">
         <v>23</v>
@@ -902,7 +845,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3">
         <v>24</v>
@@ -913,7 +856,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>25</v>
@@ -924,7 +867,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3">
         <v>26</v>
@@ -935,7 +878,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3">
         <v>27</v>
@@ -946,7 +889,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
         <v>28</v>
@@ -957,7 +900,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3">
         <v>29</v>
@@ -968,7 +911,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3">
         <v>30</v>
@@ -979,7 +922,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>31</v>
@@ -990,7 +933,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>32</v>
@@ -1001,7 +944,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>33</v>
@@ -1012,7 +955,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>34</v>
@@ -1023,7 +966,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>35</v>
@@ -1034,7 +977,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
         <v>36</v>
@@ -1045,7 +988,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
         <v>37</v>
@@ -1056,7 +999,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
         <v>38</v>
@@ -1067,7 +1010,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>39</v>
@@ -1078,7 +1021,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>40</v>
@@ -1089,233 +1032,13 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>41</v>
       </c>
       <c r="C46" s="3">
         <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="3">
-        <v>43</v>
-      </c>
-      <c r="C48" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3">
-        <v>44</v>
-      </c>
-      <c r="C49" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="C51" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="3">
-        <v>47</v>
-      </c>
-      <c r="C52" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="3">
-        <v>48</v>
-      </c>
-      <c r="C53" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="3">
-        <v>49</v>
-      </c>
-      <c r="C54" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="3">
-        <v>50</v>
-      </c>
-      <c r="C55" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="3">
-        <v>51</v>
-      </c>
-      <c r="C56" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="3">
-        <v>52</v>
-      </c>
-      <c r="C57" s="3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="3">
-        <v>53</v>
-      </c>
-      <c r="C58" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="3">
-        <v>54</v>
-      </c>
-      <c r="C59" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="3">
-        <v>55</v>
-      </c>
-      <c r="C60" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="3">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="3">
-        <v>57</v>
-      </c>
-      <c r="C62" s="3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="3">
-        <v>58</v>
-      </c>
-      <c r="C63" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="3">
-        <v>59</v>
-      </c>
-      <c r="C64" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="3">
-        <v>60</v>
-      </c>
-      <c r="C65" s="3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3">
-        <v>61</v>
-      </c>
-      <c r="C66" s="3">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Format-Input-APBDP.xlsx
+++ b/Format-Input-APBDP.xlsx
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,10 +686,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="3">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +774,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="3">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="3">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="3">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="3">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="3">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="3">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="3">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="3">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="3">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="3">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="3">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="3">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="3">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="3">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="3">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
